--- a/outputs/Lib_4_1.xlsx
+++ b/outputs/Lib_4_1.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D23ED7-409E-4E2E-97CF-58DEEF33D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_4_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -50,13 +69,16 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,11 +115,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -139,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +201,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +253,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,13 +469,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -424,10 +495,14 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1199837</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -444,10 +519,14 @@
         <v>5</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">(E3/C3)*100</f>
+        <v>1.7287280019361754E-2</v>
+      </c>
+      <c r="G3">
         <v>1199870</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -464,10 +543,14 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>114351</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -484,10 +567,14 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>225446</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -504,6 +591,10 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>6835</v>
       </c>
     </row>
